--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_BUSg.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_BUSg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/passenger data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC5044A-A896-3144-BF03-78224FA26CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D6FD6-8288-2440-BCCF-44DD726E21DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$844</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$810</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="86">
   <si>
     <t>Name:</t>
   </si>
@@ -188,16 +188,10 @@
     <t>passshort</t>
   </si>
   <si>
-    <t>passlong</t>
-  </si>
-  <si>
     <t>Max(Max(actual_new_capacity*1.2),300)</t>
   </si>
   <si>
     <t>Assumption</t>
-  </si>
-  <si>
-    <t>Same as cars</t>
   </si>
   <si>
     <t>Average distance driven by all public buses (incl. Minibuses) and private buses between 1990-2021</t>
@@ -288,6 +282,15 @@
   </si>
   <si>
     <t>Assumed to be the same as a diesel bus</t>
+  </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -736,11 +749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L428"/>
+  <dimension ref="A1:L394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -770,7 +783,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY()</f>
-        <v>45030</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -824,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -875,7 +888,7 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -884,11 +897,11 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f t="shared" ref="A9:A74" si="0">$A$6</f>
+        <f t="shared" ref="A9:A72" si="0">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" ref="B9:B74" si="1">$B$6</f>
+        <f t="shared" ref="B9:B72" si="1">$B$6</f>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C9" t="s">
@@ -915,18 +928,24 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" t="s">
         <v>51</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
@@ -938,23 +957,23 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
       <c r="G11">
-        <v>300</v>
+        <v>2.3747414000000001E-2</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -966,24 +985,26 @@
         <f t="shared" si="1"/>
         <v>conv_pass_BUSg</v>
       </c>
-      <c r="C12" t="s">
-        <v>40</v>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="G12">
-        <v>2.3747414000000001E-2</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -996,25 +1017,28 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="L13" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1026,27 +1050,29 @@
         <f t="shared" si="1"/>
         <v>conv_pass_BUSg</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>36</v>
+      <c r="C14" t="s">
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>1990</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>114.91877786752828</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1058,27 +1084,29 @@
         <f t="shared" si="1"/>
         <v>conv_pass_BUSg</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
+      <c r="C15" t="s">
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>1991</v>
       </c>
       <c r="G15">
-        <v>100</v>
+        <v>120.33908575021614</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1097,22 +1125,22 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G16">
-        <v>114.91877786752828</v>
+        <v>123.09212547499028</v>
       </c>
       <c r="H16" t="s">
         <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" t="s">
         <v>59</v>
-      </c>
-      <c r="L16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1131,22 +1159,22 @@
         <v>32</v>
       </c>
       <c r="E17">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G17">
-        <v>120.33908575021614</v>
+        <v>125.57683814763871</v>
       </c>
       <c r="H17" t="s">
         <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" t="s">
         <v>59</v>
-      </c>
-      <c r="L17" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1165,22 +1193,22 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G18">
-        <v>123.09212547499028</v>
+        <v>126.40069179667093</v>
       </c>
       <c r="H18" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" t="s">
         <v>59</v>
-      </c>
-      <c r="L18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1199,22 +1227,22 @@
         <v>32</v>
       </c>
       <c r="E19">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G19">
-        <v>125.57683814763871</v>
+        <v>129.23791371407785</v>
       </c>
       <c r="H19" t="s">
         <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" t="s">
         <v>59</v>
-      </c>
-      <c r="L19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1233,22 +1261,22 @@
         <v>32</v>
       </c>
       <c r="E20">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G20">
-        <v>126.40069179667093</v>
+        <v>126.84261384714934</v>
       </c>
       <c r="H20" t="s">
         <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" t="s">
         <v>59</v>
-      </c>
-      <c r="L20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1267,22 +1295,22 @@
         <v>32</v>
       </c>
       <c r="E21">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G21">
-        <v>129.23791371407785</v>
+        <v>122.72940579403679</v>
       </c>
       <c r="H21" t="s">
         <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
         <v>59</v>
-      </c>
-      <c r="L21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1301,22 +1329,22 @@
         <v>32</v>
       </c>
       <c r="E22">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G22">
-        <v>126.84261384714934</v>
+        <v>119.01715025906736</v>
       </c>
       <c r="H22" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" t="s">
         <v>59</v>
-      </c>
-      <c r="L22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1335,22 +1363,22 @@
         <v>32</v>
       </c>
       <c r="E23">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G23">
-        <v>122.72940579403679</v>
+        <v>116.14369942274132</v>
       </c>
       <c r="H23" t="s">
         <v>49</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" t="s">
         <v>59</v>
-      </c>
-      <c r="L23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1369,22 +1397,22 @@
         <v>32</v>
       </c>
       <c r="E24">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G24">
-        <v>119.01715025906736</v>
+        <v>113.84742189356925</v>
       </c>
       <c r="H24" t="s">
         <v>49</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" t="s">
         <v>59</v>
-      </c>
-      <c r="L24" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1403,22 +1431,22 @@
         <v>32</v>
       </c>
       <c r="E25">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G25">
-        <v>116.14369942274132</v>
+        <v>105.76088868975231</v>
       </c>
       <c r="H25" t="s">
         <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" t="s">
         <v>59</v>
-      </c>
-      <c r="L25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1437,22 +1465,22 @@
         <v>32</v>
       </c>
       <c r="E26">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G26">
-        <v>113.84742189356925</v>
+        <v>100.46355942538108</v>
       </c>
       <c r="H26" t="s">
         <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" t="s">
         <v>59</v>
-      </c>
-      <c r="L26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1471,22 +1499,22 @@
         <v>32</v>
       </c>
       <c r="E27">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G27">
-        <v>105.76088868975231</v>
+        <v>98.067102591198065</v>
       </c>
       <c r="H27" t="s">
         <v>49</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" t="s">
         <v>59</v>
-      </c>
-      <c r="L27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1505,22 +1533,22 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G28">
-        <v>100.46355942538108</v>
+        <v>88.7507319626054</v>
       </c>
       <c r="H28" t="s">
         <v>49</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" t="s">
         <v>59</v>
-      </c>
-      <c r="L28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1539,22 +1567,22 @@
         <v>32</v>
       </c>
       <c r="E29">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G29">
-        <v>98.067102591198065</v>
+        <v>82.675311834462732</v>
       </c>
       <c r="H29" t="s">
         <v>49</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" t="s">
         <v>59</v>
-      </c>
-      <c r="L29" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1573,22 +1601,22 @@
         <v>32</v>
       </c>
       <c r="E30">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G30">
-        <v>88.7507319626054</v>
+        <v>77.889715374841174</v>
       </c>
       <c r="H30" t="s">
         <v>49</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" t="s">
         <v>59</v>
-      </c>
-      <c r="L30" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1607,22 +1635,22 @@
         <v>32</v>
       </c>
       <c r="E31">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G31">
-        <v>82.675311834462732</v>
+        <v>67.479237222524645</v>
       </c>
       <c r="H31" t="s">
         <v>49</v>
       </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" t="s">
         <v>59</v>
-      </c>
-      <c r="L31" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1641,22 +1669,22 @@
         <v>32</v>
       </c>
       <c r="E32">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G32">
-        <v>77.889715374841174</v>
+        <v>57.948204158790169</v>
       </c>
       <c r="H32" t="s">
         <v>49</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" t="s">
         <v>59</v>
-      </c>
-      <c r="L32" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1675,22 +1703,22 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G33">
-        <v>67.479237222524645</v>
+        <v>51.382819328255714</v>
       </c>
       <c r="H33" t="s">
         <v>49</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" t="s">
         <v>59</v>
-      </c>
-      <c r="L33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1709,22 +1737,22 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G34">
-        <v>57.948204158790169</v>
+        <v>44.066454403379097</v>
       </c>
       <c r="H34" t="s">
         <v>49</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" t="s">
         <v>59</v>
-      </c>
-      <c r="L34" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1743,22 +1771,22 @@
         <v>32</v>
       </c>
       <c r="E35">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G35">
-        <v>51.382819328255714</v>
+        <v>39.436998352941181</v>
       </c>
       <c r="H35" t="s">
         <v>49</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" t="s">
         <v>59</v>
-      </c>
-      <c r="L35" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1777,22 +1805,22 @@
         <v>32</v>
       </c>
       <c r="E36">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G36">
-        <v>44.066454403379097</v>
+        <v>34.738116437054636</v>
       </c>
       <c r="H36" t="s">
         <v>49</v>
       </c>
       <c r="J36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" t="s">
         <v>59</v>
-      </c>
-      <c r="L36" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1811,22 +1839,22 @@
         <v>32</v>
       </c>
       <c r="E37">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G37">
-        <v>39.436998352941181</v>
+        <v>30.115671095169148</v>
       </c>
       <c r="H37" t="s">
         <v>49</v>
       </c>
       <c r="J37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" t="s">
         <v>59</v>
-      </c>
-      <c r="L37" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1845,22 +1873,22 @@
         <v>32</v>
       </c>
       <c r="E38">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G38">
-        <v>34.738116437054636</v>
+        <v>25.462503406876014</v>
       </c>
       <c r="H38" t="s">
         <v>49</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" t="s">
         <v>59</v>
-      </c>
-      <c r="L38" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1879,22 +1907,22 @@
         <v>32</v>
       </c>
       <c r="E39">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G39">
-        <v>30.115671095169148</v>
+        <v>22.376748572601048</v>
       </c>
       <c r="H39" t="s">
         <v>49</v>
       </c>
       <c r="J39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" t="s">
         <v>59</v>
-      </c>
-      <c r="L39" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1913,22 +1941,22 @@
         <v>32</v>
       </c>
       <c r="E40">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G40">
-        <v>25.462503406876014</v>
+        <v>20.179396878804646</v>
       </c>
       <c r="H40" t="s">
         <v>49</v>
       </c>
       <c r="J40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" t="s">
         <v>59</v>
-      </c>
-      <c r="L40" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1947,22 +1975,22 @@
         <v>32</v>
       </c>
       <c r="E41">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G41">
-        <v>22.376748572601048</v>
+        <v>18.182778793188032</v>
       </c>
       <c r="H41" t="s">
         <v>49</v>
       </c>
       <c r="J41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L41" t="s">
         <v>59</v>
-      </c>
-      <c r="L41" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1981,22 +2009,22 @@
         <v>32</v>
       </c>
       <c r="E42">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G42">
-        <v>20.179396878804646</v>
+        <v>16.20265884609919</v>
       </c>
       <c r="H42" t="s">
         <v>49</v>
       </c>
       <c r="J42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" t="s">
         <v>59</v>
-      </c>
-      <c r="L42" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -2015,22 +2043,22 @@
         <v>32</v>
       </c>
       <c r="E43">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G43">
-        <v>18.182778793188032</v>
+        <v>14.427804711981569</v>
       </c>
       <c r="H43" t="s">
         <v>49</v>
       </c>
       <c r="J43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L43" t="s">
         <v>59</v>
-      </c>
-      <c r="L43" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2049,22 +2077,22 @@
         <v>32</v>
       </c>
       <c r="E44">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G44">
-        <v>16.20265884609919</v>
+        <v>12.957603032104638</v>
       </c>
       <c r="H44" t="s">
         <v>49</v>
       </c>
       <c r="J44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" t="s">
         <v>59</v>
-      </c>
-      <c r="L44" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2083,22 +2111,22 @@
         <v>32</v>
       </c>
       <c r="E45">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G45">
-        <v>14.427804711981569</v>
+        <v>12.06985733702094</v>
       </c>
       <c r="H45" t="s">
         <v>49</v>
       </c>
       <c r="J45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" t="s">
         <v>59</v>
-      </c>
-      <c r="L45" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2111,28 +2139,28 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46">
-        <v>2020</v>
+        <v>17</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1990</v>
       </c>
       <c r="G46">
-        <v>12.957603032104638</v>
+        <v>5046</v>
       </c>
       <c r="H46" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J46" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="L46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2145,28 +2173,28 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47">
-        <v>2021</v>
+        <v>17</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1991</v>
       </c>
       <c r="G47">
-        <v>12.06985733702094</v>
+        <v>5206</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J47" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="L47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2185,22 +2213,22 @@
         <v>32</v>
       </c>
       <c r="E48" s="4">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G48">
-        <v>5046</v>
+        <v>5349</v>
       </c>
       <c r="H48" t="s">
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L48" t="s">
         <v>62</v>
-      </c>
-      <c r="L48" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2219,22 +2247,22 @@
         <v>32</v>
       </c>
       <c r="E49" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G49">
-        <v>5206</v>
+        <v>5496</v>
       </c>
       <c r="H49" t="s">
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" t="s">
         <v>62</v>
-      </c>
-      <c r="L49" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2253,22 +2281,22 @@
         <v>32</v>
       </c>
       <c r="E50" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G50">
-        <v>5349</v>
+        <v>5653</v>
       </c>
       <c r="H50" t="s">
         <v>43</v>
       </c>
       <c r="J50" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L50" t="s">
         <v>62</v>
-      </c>
-      <c r="L50" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2287,22 +2315,22 @@
         <v>32</v>
       </c>
       <c r="E51" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G51">
-        <v>5496</v>
+        <v>5879</v>
       </c>
       <c r="H51" t="s">
         <v>43</v>
       </c>
       <c r="J51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" t="s">
         <v>62</v>
-      </c>
-      <c r="L51" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2321,22 +2349,22 @@
         <v>32</v>
       </c>
       <c r="E52" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G52">
-        <v>5653</v>
+        <v>5932</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" t="s">
         <v>62</v>
-      </c>
-      <c r="L52" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2355,22 +2383,22 @@
         <v>32</v>
       </c>
       <c r="E53" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G53">
-        <v>5879</v>
+        <v>5880</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" t="s">
         <v>62</v>
-      </c>
-      <c r="L53" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2389,22 +2417,22 @@
         <v>32</v>
       </c>
       <c r="E54" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G54">
-        <v>5932</v>
+        <v>5875</v>
       </c>
       <c r="H54" t="s">
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" t="s">
         <v>62</v>
-      </c>
-      <c r="L54" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2423,22 +2451,22 @@
         <v>32</v>
       </c>
       <c r="E55" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G55">
-        <v>5880</v>
+        <v>5909</v>
       </c>
       <c r="H55" t="s">
         <v>43</v>
       </c>
       <c r="J55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" t="s">
         <v>62</v>
-      </c>
-      <c r="L55" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2457,22 +2485,22 @@
         <v>32</v>
       </c>
       <c r="E56" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G56">
-        <v>5875</v>
+        <v>5772</v>
       </c>
       <c r="H56" t="s">
         <v>43</v>
       </c>
       <c r="J56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" t="s">
         <v>62</v>
-      </c>
-      <c r="L56" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2491,22 +2519,22 @@
         <v>32</v>
       </c>
       <c r="E57" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G57">
-        <v>5909</v>
+        <v>5501</v>
       </c>
       <c r="H57" t="s">
         <v>43</v>
       </c>
       <c r="J57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L57" t="s">
         <v>62</v>
-      </c>
-      <c r="L57" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2525,22 +2553,22 @@
         <v>32</v>
       </c>
       <c r="E58" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G58">
-        <v>5772</v>
+        <v>5266</v>
       </c>
       <c r="H58" t="s">
         <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" t="s">
         <v>62</v>
-      </c>
-      <c r="L58" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2559,22 +2587,22 @@
         <v>32</v>
       </c>
       <c r="E59" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G59">
-        <v>5501</v>
+        <v>5036</v>
       </c>
       <c r="H59" t="s">
         <v>43</v>
       </c>
       <c r="J59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L59" t="s">
         <v>62</v>
-      </c>
-      <c r="L59" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2593,22 +2621,22 @@
         <v>32</v>
       </c>
       <c r="E60" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G60">
-        <v>5266</v>
+        <v>4570</v>
       </c>
       <c r="H60" t="s">
         <v>43</v>
       </c>
       <c r="J60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" t="s">
         <v>62</v>
-      </c>
-      <c r="L60" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2627,22 +2655,22 @@
         <v>32</v>
       </c>
       <c r="E61" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G61">
-        <v>5036</v>
+        <v>4081</v>
       </c>
       <c r="H61" t="s">
         <v>43</v>
       </c>
       <c r="J61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" t="s">
         <v>62</v>
-      </c>
-      <c r="L61" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2661,22 +2689,22 @@
         <v>32</v>
       </c>
       <c r="E62" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G62">
-        <v>4570</v>
+        <v>3669</v>
       </c>
       <c r="H62" t="s">
         <v>43</v>
       </c>
       <c r="J62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" t="s">
         <v>62</v>
-      </c>
-      <c r="L62" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2695,22 +2723,22 @@
         <v>32</v>
       </c>
       <c r="E63" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G63">
-        <v>4081</v>
+        <v>3191</v>
       </c>
       <c r="H63" t="s">
         <v>43</v>
       </c>
       <c r="J63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" t="s">
         <v>62</v>
-      </c>
-      <c r="L63" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2729,22 +2757,22 @@
         <v>32</v>
       </c>
       <c r="E64" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G64">
-        <v>3669</v>
+        <v>2689</v>
       </c>
       <c r="H64" t="s">
         <v>43</v>
       </c>
       <c r="J64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" t="s">
         <v>62</v>
-      </c>
-      <c r="L64" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2763,22 +2791,22 @@
         <v>32</v>
       </c>
       <c r="E65" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G65">
-        <v>3191</v>
+        <v>2325</v>
       </c>
       <c r="H65" t="s">
         <v>43</v>
       </c>
       <c r="J65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L65" t="s">
         <v>62</v>
-      </c>
-      <c r="L65" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2797,22 +2825,22 @@
         <v>32</v>
       </c>
       <c r="E66" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G66">
-        <v>2689</v>
+        <v>1958</v>
       </c>
       <c r="H66" t="s">
         <v>43</v>
       </c>
       <c r="J66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L66" t="s">
         <v>62</v>
-      </c>
-      <c r="L66" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2831,22 +2859,22 @@
         <v>32</v>
       </c>
       <c r="E67" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G67">
-        <v>2325</v>
+        <v>1710</v>
       </c>
       <c r="H67" t="s">
         <v>43</v>
       </c>
       <c r="J67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" t="s">
         <v>62</v>
-      </c>
-      <c r="L67" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2865,22 +2893,22 @@
         <v>32</v>
       </c>
       <c r="E68" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G68">
-        <v>1958</v>
+        <v>1469</v>
       </c>
       <c r="H68" t="s">
         <v>43</v>
       </c>
       <c r="J68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68" t="s">
         <v>62</v>
-      </c>
-      <c r="L68" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2899,22 +2927,22 @@
         <v>32</v>
       </c>
       <c r="E69" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G69">
-        <v>1710</v>
+        <v>1182</v>
       </c>
       <c r="H69" t="s">
         <v>43</v>
       </c>
       <c r="J69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L69" t="s">
         <v>62</v>
-      </c>
-      <c r="L69" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2933,22 +2961,22 @@
         <v>32</v>
       </c>
       <c r="E70" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G70">
-        <v>1469</v>
+        <v>954</v>
       </c>
       <c r="H70" t="s">
         <v>43</v>
       </c>
       <c r="J70" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L70" t="s">
         <v>62</v>
-      </c>
-      <c r="L70" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2967,22 +2995,22 @@
         <v>32</v>
       </c>
       <c r="E71" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G71">
-        <v>1182</v>
+        <v>811</v>
       </c>
       <c r="H71" t="s">
         <v>43</v>
       </c>
       <c r="J71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" t="s">
         <v>62</v>
-      </c>
-      <c r="L71" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -3001,31 +3029,31 @@
         <v>32</v>
       </c>
       <c r="E72" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G72">
-        <v>954</v>
+        <v>704</v>
       </c>
       <c r="H72" t="s">
         <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L72" t="s">
         <v>62</v>
-      </c>
-      <c r="L72" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A73:A134" si="2">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B73:B134" si="3">$B$6</f>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C73" t="s">
@@ -3035,31 +3063,31 @@
         <v>32</v>
       </c>
       <c r="E73" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G73">
-        <v>811</v>
+        <v>622</v>
       </c>
       <c r="H73" t="s">
         <v>43</v>
       </c>
       <c r="J73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73" t="s">
         <v>62</v>
-      </c>
-      <c r="L73" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CHE</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C74" t="s">
@@ -3069,31 +3097,31 @@
         <v>32</v>
       </c>
       <c r="E74" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G74">
-        <v>704</v>
+        <v>530</v>
       </c>
       <c r="H74" t="s">
         <v>43</v>
       </c>
       <c r="J74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L74" t="s">
         <v>62</v>
-      </c>
-      <c r="L74" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f t="shared" ref="A75:A136" si="2">$A$6</f>
+        <f t="shared" si="2"/>
         <v>CHE</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" ref="B75:B136" si="3">$B$6</f>
+        <f t="shared" si="3"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C75" t="s">
@@ -3103,22 +3131,22 @@
         <v>32</v>
       </c>
       <c r="E75" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G75">
-        <v>622</v>
+        <v>453</v>
       </c>
       <c r="H75" t="s">
         <v>43</v>
       </c>
       <c r="J75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" t="s">
         <v>62</v>
-      </c>
-      <c r="L75" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3137,22 +3165,22 @@
         <v>32</v>
       </c>
       <c r="E76" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G76">
-        <v>530</v>
+        <v>385</v>
       </c>
       <c r="H76" t="s">
         <v>43</v>
       </c>
       <c r="J76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L76" t="s">
         <v>62</v>
-      </c>
-      <c r="L76" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3171,22 +3199,22 @@
         <v>32</v>
       </c>
       <c r="E77" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G77">
-        <v>453</v>
+        <v>340</v>
       </c>
       <c r="H77" t="s">
         <v>43</v>
       </c>
       <c r="J77" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L77" t="s">
         <v>62</v>
-      </c>
-      <c r="L77" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3199,16 +3227,16 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E78" s="4">
-        <v>2020</v>
+        <v>1991</v>
       </c>
       <c r="G78">
-        <v>385</v>
+        <v>160</v>
       </c>
       <c r="H78" t="s">
         <v>43</v>
@@ -3217,10 +3245,10 @@
         <v>63</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3233,16 +3261,16 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E79" s="4">
-        <v>2021</v>
+        <v>1992</v>
       </c>
       <c r="G79">
-        <v>340</v>
+        <v>143</v>
       </c>
       <c r="H79" t="s">
         <v>43</v>
@@ -3251,10 +3279,10 @@
         <v>63</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3273,22 +3301,22 @@
         <v>32</v>
       </c>
       <c r="E80" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G80">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H80" t="s">
         <v>43</v>
       </c>
       <c r="J80" t="s">
+        <v>63</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L80" t="s">
         <v>65</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L80" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3307,22 +3335,22 @@
         <v>32</v>
       </c>
       <c r="E81" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G81">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="H81" t="s">
         <v>43</v>
       </c>
       <c r="J81" t="s">
+        <v>63</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L81" t="s">
         <v>65</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L81" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -3341,22 +3369,22 @@
         <v>32</v>
       </c>
       <c r="E82" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G82">
-        <v>147</v>
+        <v>226</v>
       </c>
       <c r="H82" t="s">
         <v>43</v>
       </c>
       <c r="J82" t="s">
+        <v>63</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L82" t="s">
         <v>65</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L82" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3375,22 +3403,22 @@
         <v>32</v>
       </c>
       <c r="E83" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G83">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="H83" t="s">
         <v>43</v>
       </c>
       <c r="J83" t="s">
+        <v>63</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L83" t="s">
         <v>65</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L83" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3409,22 +3437,22 @@
         <v>32</v>
       </c>
       <c r="E84" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G84">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>43</v>
       </c>
       <c r="J84" t="s">
+        <v>63</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L84" t="s">
         <v>65</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L84" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3443,22 +3471,22 @@
         <v>32</v>
       </c>
       <c r="E85" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G85">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H85" t="s">
         <v>43</v>
       </c>
       <c r="J85" t="s">
+        <v>63</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L85" t="s">
         <v>65</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L85" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3477,22 +3505,22 @@
         <v>32</v>
       </c>
       <c r="E86" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H86" t="s">
         <v>43</v>
       </c>
       <c r="J86" t="s">
+        <v>63</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L86" t="s">
         <v>65</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L86" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3511,7 +3539,7 @@
         <v>32</v>
       </c>
       <c r="E87" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3520,13 +3548,13 @@
         <v>43</v>
       </c>
       <c r="J87" t="s">
+        <v>63</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L87" t="s">
         <v>65</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L87" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3545,22 +3573,22 @@
         <v>32</v>
       </c>
       <c r="E88" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G88">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>43</v>
       </c>
       <c r="J88" t="s">
+        <v>63</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L88" t="s">
         <v>65</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L88" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3579,7 +3607,7 @@
         <v>32</v>
       </c>
       <c r="E89" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3588,13 +3616,13 @@
         <v>43</v>
       </c>
       <c r="J89" t="s">
+        <v>63</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L89" t="s">
         <v>65</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L89" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3613,7 +3641,7 @@
         <v>32</v>
       </c>
       <c r="E90" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3622,13 +3650,13 @@
         <v>43</v>
       </c>
       <c r="J90" t="s">
+        <v>63</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L90" t="s">
         <v>65</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L90" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3647,7 +3675,7 @@
         <v>32</v>
       </c>
       <c r="E91" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3656,13 +3684,13 @@
         <v>43</v>
       </c>
       <c r="J91" t="s">
+        <v>63</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L91" t="s">
         <v>65</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L91" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3681,22 +3709,22 @@
         <v>32</v>
       </c>
       <c r="E92" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H92" t="s">
         <v>43</v>
       </c>
       <c r="J92" t="s">
+        <v>63</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L92" t="s">
         <v>65</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L92" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3715,22 +3743,22 @@
         <v>32</v>
       </c>
       <c r="E93" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H93" t="s">
         <v>43</v>
       </c>
       <c r="J93" t="s">
+        <v>63</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L93" t="s">
         <v>65</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L93" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3749,22 +3777,22 @@
         <v>32</v>
       </c>
       <c r="E94" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G94">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H94" t="s">
         <v>43</v>
       </c>
       <c r="J94" t="s">
+        <v>63</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L94" t="s">
         <v>65</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L94" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3783,22 +3811,22 @@
         <v>32</v>
       </c>
       <c r="E95" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G95">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>43</v>
       </c>
       <c r="J95" t="s">
+        <v>63</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L95" t="s">
         <v>65</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L95" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3817,22 +3845,22 @@
         <v>32</v>
       </c>
       <c r="E96" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H96" t="s">
         <v>43</v>
       </c>
       <c r="J96" t="s">
+        <v>63</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L96" t="s">
         <v>65</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L96" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3851,22 +3879,22 @@
         <v>32</v>
       </c>
       <c r="E97" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>43</v>
       </c>
       <c r="J97" t="s">
+        <v>63</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L97" t="s">
         <v>65</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L97" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3885,22 +3913,22 @@
         <v>32</v>
       </c>
       <c r="E98" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H98" t="s">
         <v>43</v>
       </c>
       <c r="J98" t="s">
+        <v>63</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L98" t="s">
         <v>65</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L98" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3919,22 +3947,22 @@
         <v>32</v>
       </c>
       <c r="E99" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H99" t="s">
         <v>43</v>
       </c>
       <c r="J99" t="s">
+        <v>63</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L99" t="s">
         <v>65</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L99" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3953,22 +3981,22 @@
         <v>32</v>
       </c>
       <c r="E100" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H100" t="s">
         <v>43</v>
       </c>
       <c r="J100" t="s">
+        <v>63</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L100" t="s">
         <v>65</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L100" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3987,22 +4015,22 @@
         <v>32</v>
       </c>
       <c r="E101" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H101" t="s">
         <v>43</v>
       </c>
       <c r="J101" t="s">
+        <v>63</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L101" t="s">
         <v>65</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L101" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -4021,22 +4049,22 @@
         <v>32</v>
       </c>
       <c r="E102" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>43</v>
       </c>
       <c r="J102" t="s">
+        <v>63</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L102" t="s">
         <v>65</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L102" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -4055,22 +4083,22 @@
         <v>32</v>
       </c>
       <c r="E103" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G103">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H103" t="s">
         <v>43</v>
       </c>
       <c r="J103" t="s">
+        <v>63</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L103" t="s">
         <v>65</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L103" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -4089,22 +4117,22 @@
         <v>32</v>
       </c>
       <c r="E104" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>43</v>
       </c>
       <c r="J104" t="s">
+        <v>63</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L104" t="s">
         <v>65</v>
-      </c>
-      <c r="K104" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L104" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4123,22 +4151,22 @@
         <v>32</v>
       </c>
       <c r="E105" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G105">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>43</v>
       </c>
       <c r="J105" t="s">
+        <v>63</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L105" t="s">
         <v>65</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L105" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4157,22 +4185,22 @@
         <v>32</v>
       </c>
       <c r="E106" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H106" t="s">
         <v>43</v>
       </c>
       <c r="J106" t="s">
+        <v>63</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L106" t="s">
         <v>65</v>
-      </c>
-      <c r="K106" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L106" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4191,22 +4219,22 @@
         <v>32</v>
       </c>
       <c r="E107" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>43</v>
       </c>
       <c r="J107" t="s">
+        <v>63</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L107" t="s">
         <v>65</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L107" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4225,22 +4253,22 @@
         <v>32</v>
       </c>
       <c r="E108" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H108" t="s">
         <v>43</v>
       </c>
       <c r="J108" t="s">
+        <v>63</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L108" t="s">
         <v>65</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L108" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4253,28 +4281,25 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E109" s="4">
-        <v>2020</v>
+        <v>1991</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109" t="s">
         <v>43</v>
       </c>
       <c r="J109" t="s">
-        <v>65</v>
-      </c>
-      <c r="K109" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L109" t="s">
         <v>66</v>
-      </c>
-      <c r="L109" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4287,28 +4312,25 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E110" s="4">
-        <v>2021</v>
+        <v>1992</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H110" t="s">
         <v>43</v>
       </c>
       <c r="J110" t="s">
-        <v>65</v>
-      </c>
-      <c r="K110" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L110" t="s">
         <v>66</v>
-      </c>
-      <c r="L110" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4327,7 +4349,7 @@
         <v>32</v>
       </c>
       <c r="E111" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4336,10 +4358,10 @@
         <v>43</v>
       </c>
       <c r="J111" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4358,7 +4380,7 @@
         <v>32</v>
       </c>
       <c r="E112" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4367,10 +4389,10 @@
         <v>43</v>
       </c>
       <c r="J112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4389,7 +4411,7 @@
         <v>32</v>
       </c>
       <c r="E113" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4398,10 +4420,10 @@
         <v>43</v>
       </c>
       <c r="J113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -4420,7 +4442,7 @@
         <v>32</v>
       </c>
       <c r="E114" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4429,10 +4451,10 @@
         <v>43</v>
       </c>
       <c r="J114" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4451,19 +4473,19 @@
         <v>32</v>
       </c>
       <c r="E115" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H115" t="s">
         <v>43</v>
       </c>
       <c r="J115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L115" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4482,19 +4504,19 @@
         <v>32</v>
       </c>
       <c r="E116" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
         <v>43</v>
       </c>
       <c r="J116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4513,19 +4535,19 @@
         <v>32</v>
       </c>
       <c r="E117" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G117">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H117" t="s">
         <v>43</v>
       </c>
       <c r="J117" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4544,19 +4566,19 @@
         <v>32</v>
       </c>
       <c r="E118" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G118">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="H118" t="s">
         <v>43</v>
       </c>
       <c r="J118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L118" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4575,19 +4597,19 @@
         <v>32</v>
       </c>
       <c r="E119" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="H119" t="s">
         <v>43</v>
       </c>
       <c r="J119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L119" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4606,19 +4628,19 @@
         <v>32</v>
       </c>
       <c r="E120" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G120">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="H120" t="s">
         <v>43</v>
       </c>
       <c r="J120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L120" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4637,19 +4659,19 @@
         <v>32</v>
       </c>
       <c r="E121" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G121">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="H121" t="s">
         <v>43</v>
       </c>
       <c r="J121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L121" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4668,19 +4690,19 @@
         <v>32</v>
       </c>
       <c r="E122" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G122">
-        <v>235</v>
+        <v>466</v>
       </c>
       <c r="H122" t="s">
         <v>43</v>
       </c>
       <c r="J122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L122" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4699,19 +4721,19 @@
         <v>32</v>
       </c>
       <c r="E123" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G123">
-        <v>230</v>
+        <v>544</v>
       </c>
       <c r="H123" t="s">
         <v>43</v>
       </c>
       <c r="J123" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L123" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4730,19 +4752,19 @@
         <v>32</v>
       </c>
       <c r="E124" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G124">
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="H124" t="s">
         <v>43</v>
       </c>
       <c r="J124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L124" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4761,19 +4783,19 @@
         <v>32</v>
       </c>
       <c r="E125" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G125">
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="H125" t="s">
         <v>43</v>
       </c>
       <c r="J125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L125" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4792,19 +4814,19 @@
         <v>32</v>
       </c>
       <c r="E126" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G126">
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="H126" t="s">
         <v>43</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L126" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4823,19 +4845,19 @@
         <v>32</v>
       </c>
       <c r="E127" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G127">
-        <v>482</v>
+        <v>369</v>
       </c>
       <c r="H127" t="s">
         <v>43</v>
       </c>
       <c r="J127" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L127" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4854,19 +4876,19 @@
         <v>32</v>
       </c>
       <c r="E128" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G128">
-        <v>503</v>
+        <v>367</v>
       </c>
       <c r="H128" t="s">
         <v>43</v>
       </c>
       <c r="J128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L128" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4885,19 +4907,19 @@
         <v>32</v>
       </c>
       <c r="E129" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G129">
-        <v>369</v>
+        <v>251</v>
       </c>
       <c r="H129" t="s">
         <v>43</v>
       </c>
       <c r="J129" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4916,19 +4938,19 @@
         <v>32</v>
       </c>
       <c r="E130" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G130">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="H130" t="s">
         <v>43</v>
       </c>
       <c r="J130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L130" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4947,19 +4969,19 @@
         <v>32</v>
       </c>
       <c r="E131" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G131">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="H131" t="s">
         <v>43</v>
       </c>
       <c r="J131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L131" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4978,19 +5000,19 @@
         <v>32</v>
       </c>
       <c r="E132" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G132">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H132" t="s">
         <v>43</v>
       </c>
       <c r="J132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L132" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -5009,19 +5031,19 @@
         <v>32</v>
       </c>
       <c r="E133" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G133">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="H133" t="s">
         <v>43</v>
       </c>
       <c r="J133" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L133" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -5040,28 +5062,28 @@
         <v>32</v>
       </c>
       <c r="E134" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G134">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="H134" t="s">
         <v>43</v>
       </c>
       <c r="J134" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L134" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A135:A198" si="4">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B135:B198" si="5">$B$6</f>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C135" t="s">
@@ -5071,28 +5093,28 @@
         <v>32</v>
       </c>
       <c r="E135" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G135">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="H135" t="s">
         <v>43</v>
       </c>
       <c r="J135" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L135" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>CHE</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C136" t="s">
@@ -5102,28 +5124,28 @@
         <v>32</v>
       </c>
       <c r="E136" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G136">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H136" t="s">
         <v>43</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L136" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f t="shared" ref="A137:A200" si="4">$A$6</f>
+        <f t="shared" si="4"/>
         <v>CHE</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" ref="B137:B200" si="5">$B$6</f>
+        <f t="shared" si="5"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C137" t="s">
@@ -5133,19 +5155,19 @@
         <v>32</v>
       </c>
       <c r="E137" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G137">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H137" t="s">
         <v>43</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L137" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5164,19 +5186,19 @@
         <v>32</v>
       </c>
       <c r="E138" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G138">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="H138" t="s">
         <v>43</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L138" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5195,19 +5217,19 @@
         <v>32</v>
       </c>
       <c r="E139" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G139">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H139" t="s">
         <v>43</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L139" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5220,25 +5242,13 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E140" s="4">
-        <v>2020</v>
-      </c>
-      <c r="G140">
-        <v>70</v>
-      </c>
-      <c r="H140" t="s">
-        <v>43</v>
-      </c>
-      <c r="J140" t="s">
-        <v>53</v>
-      </c>
-      <c r="L140" t="s">
-        <v>68</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5251,25 +5261,13 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E141" s="4">
-        <v>2021</v>
-      </c>
-      <c r="G141">
-        <v>48</v>
-      </c>
-      <c r="H141" t="s">
-        <v>43</v>
-      </c>
-      <c r="J141" t="s">
-        <v>53</v>
-      </c>
-      <c r="L141" t="s">
-        <v>68</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5288,7 +5286,7 @@
         <v>32</v>
       </c>
       <c r="E142" s="4">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5307,7 +5305,16 @@
         <v>32</v>
       </c>
       <c r="E143" s="4">
-        <v>1991</v>
+        <v>1993</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>67</v>
+      </c>
+      <c r="L143" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5326,10 +5333,10 @@
         <v>32</v>
       </c>
       <c r="E144" s="4">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5345,19 +5352,10 @@
         <v>32</v>
       </c>
       <c r="E145" s="4">
-        <v>1993</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145" t="s">
-        <v>69</v>
-      </c>
-      <c r="L145" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5373,10 +5371,10 @@
         <v>32</v>
       </c>
       <c r="E146" s="4">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5392,10 +5390,10 @@
         <v>32</v>
       </c>
       <c r="E147" s="4">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5411,10 +5409,10 @@
         <v>32</v>
       </c>
       <c r="E148" s="4">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5430,10 +5428,10 @@
         <v>32</v>
       </c>
       <c r="E149" s="4">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5449,10 +5447,10 @@
         <v>32</v>
       </c>
       <c r="E150" s="4">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5468,10 +5466,12 @@
         <v>32</v>
       </c>
       <c r="E151" s="4">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2001</v>
+      </c>
+      <c r="G151" s="6"/>
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5487,10 +5487,10 @@
         <v>32</v>
       </c>
       <c r="E152" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5506,12 +5506,10 @@
         <v>32</v>
       </c>
       <c r="E153" s="4">
-        <v>2001</v>
-      </c>
-      <c r="G153" s="6"/>
-      <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5527,10 +5525,10 @@
         <v>32</v>
       </c>
       <c r="E154" s="4">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5546,10 +5544,10 @@
         <v>32</v>
       </c>
       <c r="E155" s="4">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5565,10 +5563,10 @@
         <v>32</v>
       </c>
       <c r="E156" s="4">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5584,10 +5582,10 @@
         <v>32</v>
       </c>
       <c r="E157" s="4">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5603,10 +5601,10 @@
         <v>32</v>
       </c>
       <c r="E158" s="4">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5622,10 +5620,10 @@
         <v>32</v>
       </c>
       <c r="E159" s="4">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="str">
         <f t="shared" si="4"/>
         <v>CHE</v>
@@ -5641,7 +5639,7 @@
         <v>32</v>
       </c>
       <c r="E160" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -5660,7 +5658,7 @@
         <v>32</v>
       </c>
       <c r="E161" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -5679,7 +5677,7 @@
         <v>32</v>
       </c>
       <c r="E162" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -5698,7 +5696,7 @@
         <v>32</v>
       </c>
       <c r="E163" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -5717,7 +5715,7 @@
         <v>32</v>
       </c>
       <c r="E164" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -5736,7 +5734,7 @@
         <v>32</v>
       </c>
       <c r="E165" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -5755,7 +5753,7 @@
         <v>32</v>
       </c>
       <c r="E166" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -5774,7 +5772,7 @@
         <v>32</v>
       </c>
       <c r="E167" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -5793,7 +5791,7 @@
         <v>32</v>
       </c>
       <c r="E168" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -5812,7 +5810,7 @@
         <v>32</v>
       </c>
       <c r="E169" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -5831,7 +5829,7 @@
         <v>32</v>
       </c>
       <c r="E170" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -5850,7 +5848,7 @@
         <v>32</v>
       </c>
       <c r="E171" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -5863,13 +5861,13 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E172" s="4">
-        <v>2020</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -5882,13 +5880,13 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C173" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E173" s="4">
-        <v>2021</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -5907,7 +5905,7 @@
         <v>32</v>
       </c>
       <c r="E174" s="4">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -5926,7 +5924,7 @@
         <v>32</v>
       </c>
       <c r="E175" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -5945,7 +5943,7 @@
         <v>32</v>
       </c>
       <c r="E176" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
@@ -5964,7 +5962,7 @@
         <v>32</v>
       </c>
       <c r="E177" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
@@ -5983,7 +5981,7 @@
         <v>32</v>
       </c>
       <c r="E178" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
@@ -6002,7 +6000,7 @@
         <v>32</v>
       </c>
       <c r="E179" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
@@ -6021,7 +6019,7 @@
         <v>32</v>
       </c>
       <c r="E180" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
@@ -6040,8 +6038,9 @@
         <v>32</v>
       </c>
       <c r="E181" s="4">
-        <v>1997</v>
-      </c>
+        <v>1999</v>
+      </c>
+      <c r="K181" s="2"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
@@ -6059,7 +6058,7 @@
         <v>32</v>
       </c>
       <c r="E182" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
@@ -6078,9 +6077,8 @@
         <v>32</v>
       </c>
       <c r="E183" s="4">
-        <v>1999</v>
-      </c>
-      <c r="K183" s="2"/>
+        <v>2001</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="str">
@@ -6098,7 +6096,7 @@
         <v>32</v>
       </c>
       <c r="E184" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
@@ -6117,7 +6115,7 @@
         <v>32</v>
       </c>
       <c r="E185" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
@@ -6136,7 +6134,7 @@
         <v>32</v>
       </c>
       <c r="E186" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
@@ -6155,7 +6153,7 @@
         <v>32</v>
       </c>
       <c r="E187" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -6174,7 +6172,7 @@
         <v>32</v>
       </c>
       <c r="E188" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -6193,7 +6191,7 @@
         <v>32</v>
       </c>
       <c r="E189" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
@@ -6212,7 +6210,7 @@
         <v>32</v>
       </c>
       <c r="E190" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
@@ -6231,7 +6229,7 @@
         <v>32</v>
       </c>
       <c r="E191" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
@@ -6250,8 +6248,9 @@
         <v>32</v>
       </c>
       <c r="E192" s="4">
-        <v>2008</v>
-      </c>
+        <v>2010</v>
+      </c>
+      <c r="K192" s="2"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
@@ -6269,8 +6268,9 @@
         <v>32</v>
       </c>
       <c r="E193" s="4">
-        <v>2009</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="K193" s="2"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="str">
@@ -6288,7 +6288,7 @@
         <v>32</v>
       </c>
       <c r="E194" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="K194" s="2"/>
     </row>
@@ -6308,7 +6308,7 @@
         <v>32</v>
       </c>
       <c r="E195" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="K195" s="2"/>
     </row>
@@ -6328,7 +6328,7 @@
         <v>32</v>
       </c>
       <c r="E196" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="K196" s="2"/>
     </row>
@@ -6348,7 +6348,7 @@
         <v>32</v>
       </c>
       <c r="E197" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="K197" s="2"/>
     </row>
@@ -6368,17 +6368,17 @@
         <v>32</v>
       </c>
       <c r="E198" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="K198" s="2"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A199:A261" si="6">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B199" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B199:B261" si="7">$B$6</f>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C199" t="s">
@@ -6388,17 +6388,26 @@
         <v>32</v>
       </c>
       <c r="E199" s="4">
-        <v>2015</v>
+        <v>2017</v>
+      </c>
+      <c r="G199">
+        <v>450000</v>
+      </c>
+      <c r="H199" t="s">
+        <v>69</v>
       </c>
       <c r="K199" s="2"/>
+      <c r="L199" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>CHE</v>
       </c>
       <c r="B200" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C200" t="s">
@@ -6408,17 +6417,16 @@
         <v>32</v>
       </c>
       <c r="E200" s="4">
-        <v>2016</v>
-      </c>
-      <c r="K200" s="2"/>
+        <v>2018</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
-        <f t="shared" ref="A201:A263" si="6">$A$6</f>
+        <f t="shared" si="6"/>
         <v>CHE</v>
       </c>
       <c r="B201" t="str">
-        <f t="shared" ref="B201:B263" si="7">$B$6</f>
+        <f t="shared" si="7"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C201" t="s">
@@ -6428,17 +6436,7 @@
         <v>32</v>
       </c>
       <c r="E201" s="4">
-        <v>2017</v>
-      </c>
-      <c r="G201">
-        <v>450000</v>
-      </c>
-      <c r="H201" t="s">
-        <v>71</v>
-      </c>
-      <c r="K201" s="2"/>
-      <c r="L201" t="s">
-        <v>84</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -6457,7 +6455,7 @@
         <v>32</v>
       </c>
       <c r="E202" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -6476,7 +6474,7 @@
         <v>32</v>
       </c>
       <c r="E203" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -6489,13 +6487,13 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E204" s="4">
-        <v>2020</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -6508,13 +6506,13 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C205" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E205" s="4">
-        <v>2021</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -6533,7 +6531,7 @@
         <v>32</v>
       </c>
       <c r="E206" s="4">
-        <v>1990</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -6552,7 +6550,7 @@
         <v>32</v>
       </c>
       <c r="E207" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -6571,7 +6569,7 @@
         <v>32</v>
       </c>
       <c r="E208" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
@@ -6590,7 +6588,7 @@
         <v>32</v>
       </c>
       <c r="E209" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
@@ -6609,7 +6607,7 @@
         <v>32</v>
       </c>
       <c r="E210" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -6628,8 +6626,9 @@
         <v>32</v>
       </c>
       <c r="E211" s="4">
-        <v>1995</v>
-      </c>
+        <v>1997</v>
+      </c>
+      <c r="K211" s="2"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="str">
@@ -6647,7 +6646,7 @@
         <v>32</v>
       </c>
       <c r="E212" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -6666,9 +6665,8 @@
         <v>32</v>
       </c>
       <c r="E213" s="4">
-        <v>1997</v>
-      </c>
-      <c r="K213" s="2"/>
+        <v>1999</v>
+      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="str">
@@ -6686,7 +6684,7 @@
         <v>32</v>
       </c>
       <c r="E214" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
@@ -6705,7 +6703,7 @@
         <v>32</v>
       </c>
       <c r="E215" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
@@ -6724,7 +6722,7 @@
         <v>32</v>
       </c>
       <c r="E216" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
@@ -6743,7 +6741,7 @@
         <v>32</v>
       </c>
       <c r="E217" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
@@ -6762,7 +6760,7 @@
         <v>32</v>
       </c>
       <c r="E218" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
@@ -6781,7 +6779,7 @@
         <v>32</v>
       </c>
       <c r="E219" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
@@ -6800,7 +6798,7 @@
         <v>32</v>
       </c>
       <c r="E220" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
@@ -6819,7 +6817,7 @@
         <v>32</v>
       </c>
       <c r="E221" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
@@ -6838,7 +6836,7 @@
         <v>32</v>
       </c>
       <c r="E222" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
@@ -6857,7 +6855,7 @@
         <v>32</v>
       </c>
       <c r="E223" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
@@ -6876,7 +6874,7 @@
         <v>32</v>
       </c>
       <c r="E224" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -6895,7 +6893,7 @@
         <v>32</v>
       </c>
       <c r="E225" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6914,7 +6912,7 @@
         <v>32</v>
       </c>
       <c r="E226" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6933,7 +6931,7 @@
         <v>32</v>
       </c>
       <c r="E227" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6952,7 +6950,7 @@
         <v>32</v>
       </c>
       <c r="E228" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6971,7 +6969,7 @@
         <v>32</v>
       </c>
       <c r="E229" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6990,7 +6988,7 @@
         <v>32</v>
       </c>
       <c r="E230" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -7009,7 +7007,7 @@
         <v>32</v>
       </c>
       <c r="E231" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -7028,7 +7026,7 @@
         <v>32</v>
       </c>
       <c r="E232" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -7047,7 +7045,7 @@
         <v>32</v>
       </c>
       <c r="E233" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -7066,7 +7064,22 @@
         <v>32</v>
       </c>
       <c r="E234" s="4">
-        <v>2018</v>
+        <v>2020</v>
+      </c>
+      <c r="G234">
+        <v>256000</v>
+      </c>
+      <c r="H234" t="s">
+        <v>72</v>
+      </c>
+      <c r="J234" t="s">
+        <v>70</v>
+      </c>
+      <c r="K234" t="s">
+        <v>71</v>
+      </c>
+      <c r="L234" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -7085,7 +7098,7 @@
         <v>32</v>
       </c>
       <c r="E235" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -7098,28 +7111,21 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C236" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E236" s="4">
-        <v>2020</v>
+        <v>1991</v>
       </c>
       <c r="G236">
-        <v>256000</v>
-      </c>
-      <c r="H236" t="s">
-        <v>74</v>
-      </c>
-      <c r="J236" t="s">
-        <v>72</v>
-      </c>
-      <c r="K236" t="s">
-        <v>73</v>
-      </c>
-      <c r="L236" t="s">
-        <v>83</v>
+        <f t="shared" ref="G236:H266" si="8">G109</f>
+        <v>0</v>
+      </c>
+      <c r="H236" t="str">
+        <f t="shared" si="8"/>
+        <v>units</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -7132,13 +7138,21 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C237" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E237" s="4">
-        <v>2021</v>
+        <v>1992</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="str">
+        <f t="shared" si="8"/>
+        <v>units</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -7157,10 +7171,10 @@
         <v>32</v>
       </c>
       <c r="E238" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G238">
-        <f t="shared" ref="G238:H268" si="8">G111</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H238" t="str">
@@ -7184,7 +7198,7 @@
         <v>32</v>
       </c>
       <c r="E239" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G239">
         <f t="shared" si="8"/>
@@ -7211,7 +7225,7 @@
         <v>32</v>
       </c>
       <c r="E240" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G240">
         <f t="shared" si="8"/>
@@ -7238,7 +7252,7 @@
         <v>32</v>
       </c>
       <c r="E241" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G241">
         <f t="shared" si="8"/>
@@ -7265,11 +7279,11 @@
         <v>32</v>
       </c>
       <c r="E242" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G242">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="H242" t="str">
         <f t="shared" si="8"/>
@@ -7292,11 +7306,11 @@
         <v>32</v>
       </c>
       <c r="E243" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G243">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H243" t="str">
         <f t="shared" si="8"/>
@@ -7319,11 +7333,11 @@
         <v>32</v>
       </c>
       <c r="E244" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G244">
         <f t="shared" si="8"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H244" t="str">
         <f t="shared" si="8"/>
@@ -7346,11 +7360,11 @@
         <v>32</v>
       </c>
       <c r="E245" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G245">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="H245" t="str">
         <f t="shared" si="8"/>
@@ -7373,11 +7387,11 @@
         <v>32</v>
       </c>
       <c r="E246" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G246">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="H246" t="str">
         <f t="shared" si="8"/>
@@ -7400,11 +7414,11 @@
         <v>32</v>
       </c>
       <c r="E247" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G247">
         <f t="shared" si="8"/>
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="H247" t="str">
         <f t="shared" si="8"/>
@@ -7427,11 +7441,11 @@
         <v>32</v>
       </c>
       <c r="E248" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G248">
         <f t="shared" si="8"/>
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="H248" t="str">
         <f t="shared" si="8"/>
@@ -7454,11 +7468,11 @@
         <v>32</v>
       </c>
       <c r="E249" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G249">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>466</v>
       </c>
       <c r="H249" t="str">
         <f t="shared" si="8"/>
@@ -7481,11 +7495,11 @@
         <v>32</v>
       </c>
       <c r="E250" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G250">
         <f t="shared" si="8"/>
-        <v>230</v>
+        <v>544</v>
       </c>
       <c r="H250" t="str">
         <f t="shared" si="8"/>
@@ -7508,11 +7522,11 @@
         <v>32</v>
       </c>
       <c r="E251" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G251">
         <f t="shared" si="8"/>
-        <v>466</v>
+        <v>424</v>
       </c>
       <c r="H251" t="str">
         <f t="shared" si="8"/>
@@ -7535,11 +7549,11 @@
         <v>32</v>
       </c>
       <c r="E252" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G252">
         <f t="shared" si="8"/>
-        <v>544</v>
+        <v>482</v>
       </c>
       <c r="H252" t="str">
         <f t="shared" si="8"/>
@@ -7562,11 +7576,11 @@
         <v>32</v>
       </c>
       <c r="E253" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G253">
         <f t="shared" si="8"/>
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="H253" t="str">
         <f t="shared" si="8"/>
@@ -7589,11 +7603,11 @@
         <v>32</v>
       </c>
       <c r="E254" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G254">
         <f t="shared" si="8"/>
-        <v>482</v>
+        <v>369</v>
       </c>
       <c r="H254" t="str">
         <f t="shared" si="8"/>
@@ -7616,11 +7630,11 @@
         <v>32</v>
       </c>
       <c r="E255" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G255">
         <f t="shared" si="8"/>
-        <v>503</v>
+        <v>367</v>
       </c>
       <c r="H255" t="str">
         <f t="shared" si="8"/>
@@ -7643,11 +7657,11 @@
         <v>32</v>
       </c>
       <c r="E256" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G256">
         <f t="shared" si="8"/>
-        <v>369</v>
+        <v>251</v>
       </c>
       <c r="H256" t="str">
         <f t="shared" si="8"/>
@@ -7670,11 +7684,11 @@
         <v>32</v>
       </c>
       <c r="E257" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G257">
         <f t="shared" si="8"/>
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="H257" t="str">
         <f t="shared" si="8"/>
@@ -7697,11 +7711,11 @@
         <v>32</v>
       </c>
       <c r="E258" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G258">
         <f t="shared" si="8"/>
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="H258" t="str">
         <f t="shared" si="8"/>
@@ -7724,11 +7738,11 @@
         <v>32</v>
       </c>
       <c r="E259" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G259">
         <f t="shared" si="8"/>
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H259" t="str">
         <f t="shared" si="8"/>
@@ -7751,11 +7765,11 @@
         <v>32</v>
       </c>
       <c r="E260" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G260">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="H260" t="str">
         <f t="shared" si="8"/>
@@ -7778,11 +7792,11 @@
         <v>32</v>
       </c>
       <c r="E261" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G261">
         <f t="shared" si="8"/>
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="H261" t="str">
         <f t="shared" si="8"/>
@@ -7791,11 +7805,11 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A262:A325" si="9">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B262" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B262:B325" si="10">$B$6</f>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C262" t="s">
@@ -7805,11 +7819,11 @@
         <v>32</v>
       </c>
       <c r="E262" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G262">
         <f t="shared" si="8"/>
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="H262" t="str">
         <f t="shared" si="8"/>
@@ -7818,11 +7832,11 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>CHE</v>
       </c>
       <c r="B263" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C263" t="s">
@@ -7832,11 +7846,11 @@
         <v>32</v>
       </c>
       <c r="E263" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G263">
         <f t="shared" si="8"/>
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H263" t="str">
         <f t="shared" si="8"/>
@@ -7845,11 +7859,11 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="str">
-        <f t="shared" ref="A264:A327" si="9">$A$6</f>
+        <f t="shared" si="9"/>
         <v>CHE</v>
       </c>
       <c r="B264" t="str">
-        <f t="shared" ref="B264:B327" si="10">$B$6</f>
+        <f t="shared" si="10"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C264" t="s">
@@ -7859,11 +7873,11 @@
         <v>32</v>
       </c>
       <c r="E264" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G264">
         <f t="shared" si="8"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H264" t="str">
         <f t="shared" si="8"/>
@@ -7886,11 +7900,11 @@
         <v>32</v>
       </c>
       <c r="E265" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G265">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="H265" t="str">
         <f t="shared" si="8"/>
@@ -7913,11 +7927,11 @@
         <v>32</v>
       </c>
       <c r="E266" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G266">
         <f t="shared" si="8"/>
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H266" t="str">
         <f t="shared" si="8"/>
@@ -7934,21 +7948,20 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E267" s="4">
-        <v>2020</v>
+        <v>1990</v>
       </c>
       <c r="G267">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="H267" t="str">
-        <f t="shared" si="8"/>
-        <v>units</v>
+        <v>1</v>
+      </c>
+      <c r="K267" s="2"/>
+      <c r="L267" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -7961,21 +7974,20 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C268" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E268" s="4">
-        <v>2021</v>
+        <v>1991</v>
       </c>
       <c r="G268">
-        <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-      <c r="H268" t="str">
-        <f t="shared" si="8"/>
-        <v>units</v>
+        <v>1</v>
+      </c>
+      <c r="K268" s="2"/>
+      <c r="L268" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -7994,7 +8006,7 @@
         <v>32</v>
       </c>
       <c r="E269" s="4">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G269">
         <v>1</v>
@@ -8020,7 +8032,7 @@
         <v>32</v>
       </c>
       <c r="E270" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -8046,7 +8058,7 @@
         <v>32</v>
       </c>
       <c r="E271" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -8072,7 +8084,7 @@
         <v>32</v>
       </c>
       <c r="E272" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -8098,7 +8110,7 @@
         <v>32</v>
       </c>
       <c r="E273" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -8124,7 +8136,7 @@
         <v>32</v>
       </c>
       <c r="E274" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -8150,7 +8162,7 @@
         <v>32</v>
       </c>
       <c r="E275" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -8176,7 +8188,7 @@
         <v>32</v>
       </c>
       <c r="E276" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -8202,7 +8214,7 @@
         <v>32</v>
       </c>
       <c r="E277" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -8228,7 +8240,7 @@
         <v>32</v>
       </c>
       <c r="E278" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -8254,7 +8266,7 @@
         <v>32</v>
       </c>
       <c r="E279" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -8280,12 +8292,11 @@
         <v>32</v>
       </c>
       <c r="E280" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G280">
         <v>1</v>
       </c>
-      <c r="K280" s="2"/>
       <c r="L280" t="s">
         <v>46</v>
       </c>
@@ -8306,12 +8317,11 @@
         <v>32</v>
       </c>
       <c r="E281" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G281">
         <v>1</v>
       </c>
-      <c r="K281" s="2"/>
       <c r="L281" t="s">
         <v>46</v>
       </c>
@@ -8332,7 +8342,7 @@
         <v>32</v>
       </c>
       <c r="E282" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G282">
         <v>1</v>
@@ -8357,7 +8367,7 @@
         <v>32</v>
       </c>
       <c r="E283" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G283">
         <v>1</v>
@@ -8382,7 +8392,7 @@
         <v>32</v>
       </c>
       <c r="E284" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G284">
         <v>1</v>
@@ -8407,7 +8417,7 @@
         <v>32</v>
       </c>
       <c r="E285" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G285">
         <v>1</v>
@@ -8432,7 +8442,7 @@
         <v>32</v>
       </c>
       <c r="E286" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G286">
         <v>1</v>
@@ -8457,7 +8467,7 @@
         <v>32</v>
       </c>
       <c r="E287" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G287">
         <v>1</v>
@@ -8482,7 +8492,7 @@
         <v>32</v>
       </c>
       <c r="E288" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G288">
         <v>1</v>
@@ -8507,7 +8517,7 @@
         <v>32</v>
       </c>
       <c r="E289" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G289">
         <v>1</v>
@@ -8532,7 +8542,7 @@
         <v>32</v>
       </c>
       <c r="E290" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -8557,7 +8567,7 @@
         <v>32</v>
       </c>
       <c r="E291" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G291">
         <v>1</v>
@@ -8582,7 +8592,7 @@
         <v>32</v>
       </c>
       <c r="E292" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G292">
         <v>1</v>
@@ -8607,7 +8617,7 @@
         <v>32</v>
       </c>
       <c r="E293" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G293">
         <v>1</v>
@@ -8632,7 +8642,7 @@
         <v>32</v>
       </c>
       <c r="E294" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G294">
         <v>1</v>
@@ -8657,7 +8667,7 @@
         <v>32</v>
       </c>
       <c r="E295" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -8682,7 +8692,7 @@
         <v>32</v>
       </c>
       <c r="E296" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -8707,7 +8717,7 @@
         <v>32</v>
       </c>
       <c r="E297" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G297">
         <v>1</v>
@@ -8732,7 +8742,7 @@
         <v>32</v>
       </c>
       <c r="E298" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G298">
         <v>1</v>
@@ -8751,16 +8761,16 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C299" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E299" s="4">
-        <v>2020</v>
+        <v>1990</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L299" t="s">
         <v>46</v>
@@ -8776,16 +8786,16 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C300" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E300" s="4">
-        <v>2021</v>
+        <v>1991</v>
       </c>
       <c r="G300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L300" t="s">
         <v>46</v>
@@ -8807,7 +8817,7 @@
         <v>32</v>
       </c>
       <c r="E301" s="4">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -8832,7 +8842,7 @@
         <v>32</v>
       </c>
       <c r="E302" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -8857,7 +8867,7 @@
         <v>32</v>
       </c>
       <c r="E303" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -8882,7 +8892,7 @@
         <v>32</v>
       </c>
       <c r="E304" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -8907,7 +8917,7 @@
         <v>32</v>
       </c>
       <c r="E305" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -8932,7 +8942,7 @@
         <v>32</v>
       </c>
       <c r="E306" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -8957,7 +8967,7 @@
         <v>32</v>
       </c>
       <c r="E307" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -8982,7 +8992,7 @@
         <v>32</v>
       </c>
       <c r="E308" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -9007,7 +9017,7 @@
         <v>32</v>
       </c>
       <c r="E309" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -9032,7 +9042,7 @@
         <v>32</v>
       </c>
       <c r="E310" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -9057,7 +9067,7 @@
         <v>32</v>
       </c>
       <c r="E311" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -9082,7 +9092,7 @@
         <v>32</v>
       </c>
       <c r="E312" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -9107,7 +9117,7 @@
         <v>32</v>
       </c>
       <c r="E313" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -9132,7 +9142,7 @@
         <v>32</v>
       </c>
       <c r="E314" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -9157,7 +9167,7 @@
         <v>32</v>
       </c>
       <c r="E315" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -9182,7 +9192,7 @@
         <v>32</v>
       </c>
       <c r="E316" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="G316">
         <v>0</v>
@@ -9207,7 +9217,7 @@
         <v>32</v>
       </c>
       <c r="E317" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="G317">
         <v>0</v>
@@ -9232,7 +9242,7 @@
         <v>32</v>
       </c>
       <c r="E318" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G318">
         <v>0</v>
@@ -9257,7 +9267,7 @@
         <v>32</v>
       </c>
       <c r="E319" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="G319">
         <v>0</v>
@@ -9282,7 +9292,7 @@
         <v>32</v>
       </c>
       <c r="E320" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="G320">
         <v>0</v>
@@ -9307,7 +9317,7 @@
         <v>32</v>
       </c>
       <c r="E321" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G321">
         <v>0</v>
@@ -9332,7 +9342,7 @@
         <v>32</v>
       </c>
       <c r="E322" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="G322">
         <v>0</v>
@@ -9357,7 +9367,7 @@
         <v>32</v>
       </c>
       <c r="E323" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="G323">
         <v>0</v>
@@ -9382,7 +9392,7 @@
         <v>32</v>
       </c>
       <c r="E324" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="G324">
         <v>0</v>
@@ -9407,7 +9417,7 @@
         <v>32</v>
       </c>
       <c r="E325" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G325">
         <v>0</v>
@@ -9418,11 +9428,11 @@
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A326:A389" si="11">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B326" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="B326:B389" si="12">$B$6</f>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C326" t="s">
@@ -9432,7 +9442,7 @@
         <v>32</v>
       </c>
       <c r="E326" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="G326">
         <v>0</v>
@@ -9443,11 +9453,11 @@
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>CHE</v>
       </c>
       <c r="B327" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C327" t="s">
@@ -9457,7 +9467,7 @@
         <v>32</v>
       </c>
       <c r="E327" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="G327">
         <v>0</v>
@@ -9468,11 +9478,11 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="str">
-        <f t="shared" ref="A328:A391" si="11">$A$6</f>
+        <f t="shared" si="11"/>
         <v>CHE</v>
       </c>
       <c r="B328" t="str">
-        <f t="shared" ref="B328:B391" si="12">$B$6</f>
+        <f t="shared" si="12"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C328" t="s">
@@ -9482,7 +9492,7 @@
         <v>32</v>
       </c>
       <c r="E328" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G328">
         <v>0</v>
@@ -9507,7 +9517,7 @@
         <v>32</v>
       </c>
       <c r="E329" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="G329">
         <v>0</v>
@@ -9532,7 +9542,7 @@
         <v>32</v>
       </c>
       <c r="E330" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G330">
         <v>0</v>
@@ -9551,19 +9561,17 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C331" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E331" s="4">
-        <v>2020</v>
-      </c>
-      <c r="G331">
-        <v>0</v>
-      </c>
-      <c r="L331" t="s">
-        <v>46</v>
+        <v>1990</v>
+      </c>
+      <c r="F331" t="str">
+        <f>F$8</f>
+        <v>gasoline</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -9576,20 +9584,19 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C332" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E332" s="4">
-        <v>2021</v>
-      </c>
-      <c r="G332">
-        <v>0</v>
-      </c>
-      <c r="L332" t="s">
-        <v>46</v>
-      </c>
+        <v>1991</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" ref="F332:F362" si="13">F$8</f>
+        <v>gasoline</v>
+      </c>
+      <c r="K332" s="2"/>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="str">
@@ -9607,12 +9614,13 @@
         <v>41</v>
       </c>
       <c r="E333" s="4">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="F333" t="str">
-        <f>F$8</f>
+        <f t="shared" si="13"/>
         <v>gasoline</v>
       </c>
+      <c r="K333" s="2"/>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="str">
@@ -9630,10 +9638,10 @@
         <v>41</v>
       </c>
       <c r="E334" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="F334" t="str">
-        <f t="shared" ref="F334:F364" si="13">F$8</f>
+        <f t="shared" si="13"/>
         <v>gasoline</v>
       </c>
       <c r="K334" s="2"/>
@@ -9654,7 +9662,7 @@
         <v>41</v>
       </c>
       <c r="E335" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="F335" t="str">
         <f t="shared" si="13"/>
@@ -9678,7 +9686,7 @@
         <v>41</v>
       </c>
       <c r="E336" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="F336" t="str">
         <f t="shared" si="13"/>
@@ -9702,7 +9710,7 @@
         <v>41</v>
       </c>
       <c r="E337" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="F337" t="str">
         <f t="shared" si="13"/>
@@ -9726,7 +9734,7 @@
         <v>41</v>
       </c>
       <c r="E338" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="F338" t="str">
         <f t="shared" si="13"/>
@@ -9750,7 +9758,7 @@
         <v>41</v>
       </c>
       <c r="E339" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="F339" t="str">
         <f t="shared" si="13"/>
@@ -9774,7 +9782,7 @@
         <v>41</v>
       </c>
       <c r="E340" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="F340" t="str">
         <f t="shared" si="13"/>
@@ -9798,7 +9806,7 @@
         <v>41</v>
       </c>
       <c r="E341" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F341" t="str">
         <f t="shared" si="13"/>
@@ -9822,7 +9830,7 @@
         <v>41</v>
       </c>
       <c r="E342" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="F342" t="str">
         <f t="shared" si="13"/>
@@ -9846,7 +9854,7 @@
         <v>41</v>
       </c>
       <c r="E343" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F343" t="str">
         <f t="shared" si="13"/>
@@ -9870,7 +9878,7 @@
         <v>41</v>
       </c>
       <c r="E344" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="F344" t="str">
         <f t="shared" si="13"/>
@@ -9894,7 +9902,7 @@
         <v>41</v>
       </c>
       <c r="E345" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="13"/>
@@ -9918,7 +9926,7 @@
         <v>41</v>
       </c>
       <c r="E346" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" si="13"/>
@@ -9942,7 +9950,7 @@
         <v>41</v>
       </c>
       <c r="E347" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="F347" t="str">
         <f t="shared" si="13"/>
@@ -9966,7 +9974,7 @@
         <v>41</v>
       </c>
       <c r="E348" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="F348" t="str">
         <f t="shared" si="13"/>
@@ -9990,7 +9998,7 @@
         <v>41</v>
       </c>
       <c r="E349" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F349" t="str">
         <f t="shared" si="13"/>
@@ -10014,7 +10022,7 @@
         <v>41</v>
       </c>
       <c r="E350" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F350" t="str">
         <f t="shared" si="13"/>
@@ -10038,7 +10046,7 @@
         <v>41</v>
       </c>
       <c r="E351" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F351" t="str">
         <f t="shared" si="13"/>
@@ -10062,7 +10070,7 @@
         <v>41</v>
       </c>
       <c r="E352" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F352" t="str">
         <f t="shared" si="13"/>
@@ -10086,7 +10094,7 @@
         <v>41</v>
       </c>
       <c r="E353" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F353" t="str">
         <f t="shared" si="13"/>
@@ -10110,7 +10118,7 @@
         <v>41</v>
       </c>
       <c r="E354" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" si="13"/>
@@ -10134,7 +10142,7 @@
         <v>41</v>
       </c>
       <c r="E355" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F355" t="str">
         <f t="shared" si="13"/>
@@ -10158,7 +10166,7 @@
         <v>41</v>
       </c>
       <c r="E356" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F356" t="str">
         <f t="shared" si="13"/>
@@ -10182,7 +10190,7 @@
         <v>41</v>
       </c>
       <c r="E357" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F357" t="str">
         <f t="shared" si="13"/>
@@ -10206,13 +10214,25 @@
         <v>41</v>
       </c>
       <c r="E358" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F358" t="str">
         <f t="shared" si="13"/>
         <v>gasoline</v>
       </c>
+      <c r="G358">
+        <v>1.3920000000000002E-6</v>
+      </c>
+      <c r="H358" t="s">
+        <v>73</v>
+      </c>
+      <c r="J358" t="s">
+        <v>52</v>
+      </c>
       <c r="K358" s="2"/>
+      <c r="L358" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="str">
@@ -10230,7 +10250,7 @@
         <v>41</v>
       </c>
       <c r="E359" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F359" t="str">
         <f t="shared" si="13"/>
@@ -10254,25 +10274,13 @@
         <v>41</v>
       </c>
       <c r="E360" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F360" t="str">
         <f t="shared" si="13"/>
         <v>gasoline</v>
       </c>
-      <c r="G360">
-        <v>1.3920000000000002E-6</v>
-      </c>
-      <c r="H360" t="s">
-        <v>75</v>
-      </c>
-      <c r="J360" t="s">
-        <v>53</v>
-      </c>
       <c r="K360" s="2"/>
-      <c r="L360" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="str">
@@ -10290,7 +10298,7 @@
         <v>41</v>
       </c>
       <c r="E361" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F361" t="str">
         <f t="shared" si="13"/>
@@ -10314,7 +10322,7 @@
         <v>41</v>
       </c>
       <c r="E362" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F362" t="str">
         <f t="shared" si="13"/>
@@ -10332,17 +10340,16 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C363" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E363" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F363" t="str">
-        <f t="shared" si="13"/>
-        <v>gasoline</v>
+        <v>1990</v>
+      </c>
+      <c r="F363" t="s">
+        <v>50</v>
       </c>
       <c r="K363" s="2"/>
     </row>
@@ -10356,17 +10363,16 @@
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C364" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E364" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F364" t="str">
-        <f t="shared" si="13"/>
-        <v>gasoline</v>
+        <v>1991</v>
+      </c>
+      <c r="F364" t="s">
+        <v>50</v>
       </c>
       <c r="K364" s="2"/>
     </row>
@@ -10386,7 +10392,7 @@
         <v>41</v>
       </c>
       <c r="E365" s="4">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="F365" t="s">
         <v>50</v>
@@ -10409,7 +10415,7 @@
         <v>41</v>
       </c>
       <c r="E366" s="4">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="F366" t="s">
         <v>50</v>
@@ -10432,7 +10438,7 @@
         <v>41</v>
       </c>
       <c r="E367" s="4">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="F367" t="s">
         <v>50</v>
@@ -10455,7 +10461,7 @@
         <v>41</v>
       </c>
       <c r="E368" s="4">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="F368" t="s">
         <v>50</v>
@@ -10478,7 +10484,7 @@
         <v>41</v>
       </c>
       <c r="E369" s="4">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="F369" t="s">
         <v>50</v>
@@ -10501,12 +10507,26 @@
         <v>41</v>
       </c>
       <c r="E370" s="4">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="F370" t="s">
         <v>50</v>
       </c>
-      <c r="K370" s="2"/>
+      <c r="G370">
+        <v>12.892920342028125</v>
+      </c>
+      <c r="H370" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J370" t="s">
+        <v>75</v>
+      </c>
+      <c r="K370" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L370" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" t="str">
@@ -10524,12 +10544,26 @@
         <v>41</v>
       </c>
       <c r="E371" s="4">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="F371" t="s">
         <v>50</v>
       </c>
-      <c r="K371" s="2"/>
+      <c r="G371">
+        <v>12.480647119404717</v>
+      </c>
+      <c r="H371" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J371" t="s">
+        <v>75</v>
+      </c>
+      <c r="K371" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L371" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" t="str">
@@ -10547,25 +10581,25 @@
         <v>41</v>
       </c>
       <c r="E372" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="F372" t="s">
         <v>50</v>
       </c>
       <c r="G372">
-        <v>12.892920342028125</v>
+        <v>12.343507748628877</v>
       </c>
       <c r="H372" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J372" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K372" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L372" t="s">
         <v>76</v>
-      </c>
-      <c r="L372" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -10584,25 +10618,25 @@
         <v>41</v>
       </c>
       <c r="E373" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="F373" t="s">
         <v>50</v>
       </c>
       <c r="G373">
-        <v>12.480647119404717</v>
+        <v>12.334430158565448</v>
       </c>
       <c r="H373" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J373" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K373" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L373" t="s">
         <v>76</v>
-      </c>
-      <c r="L373" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -10621,25 +10655,25 @@
         <v>41</v>
       </c>
       <c r="E374" s="4">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="F374" t="s">
         <v>50</v>
       </c>
       <c r="G374">
-        <v>12.343507748628877</v>
+        <v>12.327709046357086</v>
       </c>
       <c r="H374" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J374" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K374" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L374" t="s">
         <v>76</v>
-      </c>
-      <c r="L374" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -10658,25 +10692,25 @@
         <v>41</v>
       </c>
       <c r="E375" s="4">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="F375" t="s">
         <v>50</v>
       </c>
       <c r="G375">
-        <v>12.334430158565448</v>
+        <v>12.239624778211674</v>
       </c>
       <c r="H375" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J375" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K375" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L375" t="s">
         <v>76</v>
-      </c>
-      <c r="L375" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -10695,25 +10729,25 @@
         <v>41</v>
       </c>
       <c r="E376" s="4">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="F376" t="s">
         <v>50</v>
       </c>
       <c r="G376">
-        <v>12.327709046357086</v>
+        <v>12.163790840106042</v>
       </c>
       <c r="H376" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J376" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K376" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L376" t="s">
         <v>76</v>
-      </c>
-      <c r="L376" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -10732,25 +10766,25 @@
         <v>41</v>
       </c>
       <c r="E377" s="4">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="F377" t="s">
         <v>50</v>
       </c>
       <c r="G377">
-        <v>12.239624778211674</v>
+        <v>12.118962413188155</v>
       </c>
       <c r="H377" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J377" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K377" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L377" t="s">
         <v>76</v>
-      </c>
-      <c r="L377" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -10769,25 +10803,25 @@
         <v>41</v>
       </c>
       <c r="E378" s="4">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="F378" t="s">
         <v>50</v>
       </c>
       <c r="G378">
-        <v>12.163790840106042</v>
+        <v>14.267666963331084</v>
       </c>
       <c r="H378" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J378" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K378" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L378" t="s">
         <v>76</v>
-      </c>
-      <c r="L378" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -10806,25 +10840,25 @@
         <v>41</v>
       </c>
       <c r="E379" s="4">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="F379" t="s">
         <v>50</v>
       </c>
       <c r="G379">
-        <v>12.118962413188155</v>
+        <v>14.442759666413949</v>
       </c>
       <c r="H379" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J379" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K379" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L379" t="s">
         <v>76</v>
-      </c>
-      <c r="L379" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -10843,25 +10877,25 @@
         <v>41</v>
       </c>
       <c r="E380" s="4">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="F380" t="s">
         <v>50</v>
       </c>
       <c r="G380">
-        <v>14.267666963331084</v>
+        <v>14.756921105546322</v>
       </c>
       <c r="H380" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J380" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K380" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L380" t="s">
         <v>76</v>
-      </c>
-      <c r="L380" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -10880,25 +10914,25 @@
         <v>41</v>
       </c>
       <c r="E381" s="4">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="F381" t="s">
         <v>50</v>
       </c>
       <c r="G381">
-        <v>14.442759666413949</v>
+        <v>14.030701754385966</v>
       </c>
       <c r="H381" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J381" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K381" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L381" t="s">
         <v>76</v>
-      </c>
-      <c r="L381" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -10917,25 +10951,25 @@
         <v>41</v>
       </c>
       <c r="E382" s="4">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="F382" t="s">
         <v>50</v>
       </c>
       <c r="G382">
-        <v>14.756921105546322</v>
+        <v>13.86805367683616</v>
       </c>
       <c r="H382" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J382" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K382" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L382" t="s">
         <v>76</v>
-      </c>
-      <c r="L382" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -10954,25 +10988,25 @@
         <v>41</v>
       </c>
       <c r="E383" s="4">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="F383" t="s">
         <v>50</v>
       </c>
       <c r="G383">
-        <v>14.030701754385966</v>
+        <v>13.778788731604468</v>
       </c>
       <c r="H383" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J383" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K383" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L383" t="s">
         <v>76</v>
-      </c>
-      <c r="L383" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -10991,25 +11025,25 @@
         <v>41</v>
       </c>
       <c r="E384" s="4">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F384" t="s">
         <v>50</v>
       </c>
       <c r="G384">
-        <v>13.86805367683616</v>
+        <v>13.660467239831632</v>
       </c>
       <c r="H384" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J384" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K384" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L384" t="s">
         <v>76</v>
-      </c>
-      <c r="L384" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -11028,25 +11062,25 @@
         <v>41</v>
       </c>
       <c r="E385" s="4">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="F385" t="s">
         <v>50</v>
       </c>
       <c r="G385">
-        <v>13.778788731604468</v>
+        <v>13.747772565737003</v>
       </c>
       <c r="H385" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J385" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K385" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L385" t="s">
         <v>76</v>
-      </c>
-      <c r="L385" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11065,25 +11099,25 @@
         <v>41</v>
       </c>
       <c r="E386" s="4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F386" t="s">
         <v>50</v>
       </c>
       <c r="G386">
-        <v>13.660467239831632</v>
+        <v>13.586171271694839</v>
       </c>
       <c r="H386" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J386" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K386" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L386" t="s">
         <v>76</v>
-      </c>
-      <c r="L386" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11102,25 +11136,25 @@
         <v>41</v>
       </c>
       <c r="E387" s="4">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F387" t="s">
         <v>50</v>
       </c>
       <c r="G387">
-        <v>13.747772565737003</v>
+        <v>13.631688462365574</v>
       </c>
       <c r="H387" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J387" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K387" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L387" t="s">
         <v>76</v>
-      </c>
-      <c r="L387" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11139,25 +11173,25 @@
         <v>41</v>
       </c>
       <c r="E388" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F388" t="s">
         <v>50</v>
       </c>
       <c r="G388">
-        <v>13.586171271694839</v>
+        <v>13.617766573905532</v>
       </c>
       <c r="H388" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J388" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K388" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L388" t="s">
         <v>76</v>
-      </c>
-      <c r="L388" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11176,34 +11210,34 @@
         <v>41</v>
       </c>
       <c r="E389" s="4">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F389" t="s">
         <v>50</v>
       </c>
       <c r="G389">
-        <v>13.631688462365574</v>
+        <v>13.535408452010143</v>
       </c>
       <c r="H389" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J389" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K389" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L389" t="s">
         <v>76</v>
-      </c>
-      <c r="L389" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A390:A394" si="14">$A$6</f>
         <v>CHE</v>
       </c>
       <c r="B390" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B390:B394" si="15">$B$6</f>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C390" t="s">
@@ -11213,34 +11247,34 @@
         <v>41</v>
       </c>
       <c r="E390" s="4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F390" t="s">
         <v>50</v>
       </c>
       <c r="G390">
-        <v>13.617766573905532</v>
+        <v>13.549564192564148</v>
       </c>
       <c r="H390" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J390" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K390" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L390" t="s">
         <v>76</v>
-      </c>
-      <c r="L390" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>CHE</v>
       </c>
       <c r="B391" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C391" t="s">
@@ -11250,34 +11284,34 @@
         <v>41</v>
       </c>
       <c r="E391" s="4">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F391" t="s">
         <v>50</v>
       </c>
       <c r="G391">
-        <v>13.535408452010143</v>
+        <v>13.315673181578768</v>
       </c>
       <c r="H391" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J391" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K391" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L391" t="s">
         <v>76</v>
-      </c>
-      <c r="L391" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" t="str">
-        <f t="shared" ref="A392:A428" si="14">$A$6</f>
+        <f t="shared" si="14"/>
         <v>CHE</v>
       </c>
       <c r="B392" t="str">
-        <f t="shared" ref="B392:B428" si="15">$B$6</f>
+        <f t="shared" si="15"/>
         <v>conv_pass_BUSg</v>
       </c>
       <c r="C392" t="s">
@@ -11287,25 +11321,25 @@
         <v>41</v>
       </c>
       <c r="E392" s="4">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F392" t="s">
         <v>50</v>
       </c>
       <c r="G392">
-        <v>13.549564192564148</v>
+        <v>13.588614763325307</v>
       </c>
       <c r="H392" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J392" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K392" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L392" t="s">
         <v>76</v>
-      </c>
-      <c r="L392" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11324,25 +11358,25 @@
         <v>41</v>
       </c>
       <c r="E393" s="4">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F393" t="s">
         <v>50</v>
       </c>
       <c r="G393">
-        <v>13.315673181578768</v>
+        <v>11.768257250215719</v>
       </c>
       <c r="H393" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J393" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K393" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L393" t="s">
         <v>76</v>
-      </c>
-      <c r="L393" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11361,1223 +11395,43 @@
         <v>41</v>
       </c>
       <c r="E394" s="4">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F394" t="s">
         <v>50</v>
       </c>
       <c r="G394">
-        <v>13.588614763325307</v>
+        <v>11.766576553990241</v>
       </c>
       <c r="H394" s="4" t="s">
         <v>47</v>
       </c>
       <c r="J394" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K394" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L394" t="s">
         <v>76</v>
       </c>
-      <c r="L394" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A395" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B395" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C395" t="s">
-        <v>34</v>
-      </c>
-      <c r="D395" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E395" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F395" t="s">
-        <v>50</v>
-      </c>
-      <c r="G395">
-        <v>11.768257250215719</v>
-      </c>
-      <c r="H395" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J395" t="s">
-        <v>77</v>
-      </c>
-      <c r="K395" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L395" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A396" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B396" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C396" t="s">
-        <v>34</v>
-      </c>
-      <c r="D396" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E396" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F396" t="s">
-        <v>50</v>
-      </c>
-      <c r="G396">
-        <v>11.766576553990241</v>
-      </c>
-      <c r="H396" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J396" t="s">
-        <v>77</v>
-      </c>
-      <c r="K396" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L396" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A397" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B397" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C397" t="s">
-        <v>34</v>
-      </c>
-      <c r="D397" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E397" s="4">
-        <v>1990</v>
-      </c>
-      <c r="F397" t="s">
-        <v>51</v>
-      </c>
-      <c r="K397" s="2"/>
-    </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A398" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B398" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C398" t="s">
-        <v>34</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E398" s="4">
-        <v>1991</v>
-      </c>
-      <c r="F398" t="s">
-        <v>51</v>
-      </c>
-      <c r="K398" s="2"/>
-    </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A399" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B399" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C399" t="s">
-        <v>34</v>
-      </c>
-      <c r="D399" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E399" s="4">
-        <v>1992</v>
-      </c>
-      <c r="F399" t="s">
-        <v>51</v>
-      </c>
-      <c r="K399" s="2"/>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A400" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B400" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C400" t="s">
-        <v>34</v>
-      </c>
-      <c r="D400" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E400" s="4">
-        <v>1993</v>
-      </c>
-      <c r="F400" t="s">
-        <v>51</v>
-      </c>
-      <c r="K400" s="2"/>
-    </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A401" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B401" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C401" t="s">
-        <v>34</v>
-      </c>
-      <c r="D401" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E401" s="4">
-        <v>1994</v>
-      </c>
-      <c r="F401" t="s">
-        <v>51</v>
-      </c>
-      <c r="K401" s="2"/>
-    </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A402" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B402" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C402" t="s">
-        <v>34</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E402" s="4">
-        <v>1995</v>
-      </c>
-      <c r="F402" t="s">
-        <v>51</v>
-      </c>
-      <c r="K402" s="2"/>
-    </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A403" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B403" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C403" t="s">
-        <v>34</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E403" s="4">
-        <v>1996</v>
-      </c>
-      <c r="F403" t="s">
-        <v>51</v>
-      </c>
-      <c r="K403" s="2"/>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A404" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B404" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C404" t="s">
-        <v>34</v>
-      </c>
-      <c r="D404" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E404" s="4">
-        <v>1997</v>
-      </c>
-      <c r="F404" t="s">
-        <v>51</v>
-      </c>
-      <c r="G404">
-        <f t="shared" ref="G404:G428" si="16">G372</f>
-        <v>12.892920342028125</v>
-      </c>
-      <c r="H404" t="s">
-        <v>47</v>
-      </c>
-      <c r="J404" t="s">
-        <v>77</v>
-      </c>
-      <c r="K404" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L404" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A405" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B405" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C405" t="s">
-        <v>34</v>
-      </c>
-      <c r="D405" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E405" s="4">
-        <v>1998</v>
-      </c>
-      <c r="F405" t="s">
-        <v>51</v>
-      </c>
-      <c r="G405">
-        <f t="shared" si="16"/>
-        <v>12.480647119404717</v>
-      </c>
-      <c r="H405" t="s">
-        <v>47</v>
-      </c>
-      <c r="J405" t="s">
-        <v>77</v>
-      </c>
-      <c r="K405" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L405" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A406" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B406" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C406" t="s">
-        <v>34</v>
-      </c>
-      <c r="D406" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E406" s="4">
-        <v>1999</v>
-      </c>
-      <c r="F406" t="s">
-        <v>51</v>
-      </c>
-      <c r="G406">
-        <f t="shared" si="16"/>
-        <v>12.343507748628877</v>
-      </c>
-      <c r="H406" t="s">
-        <v>47</v>
-      </c>
-      <c r="J406" t="s">
-        <v>77</v>
-      </c>
-      <c r="K406" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L406" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A407" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B407" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C407" t="s">
-        <v>34</v>
-      </c>
-      <c r="D407" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E407" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F407" t="s">
-        <v>51</v>
-      </c>
-      <c r="G407">
-        <f t="shared" si="16"/>
-        <v>12.334430158565448</v>
-      </c>
-      <c r="H407" t="s">
-        <v>47</v>
-      </c>
-      <c r="J407" t="s">
-        <v>77</v>
-      </c>
-      <c r="K407" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L407" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A408" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B408" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C408" t="s">
-        <v>34</v>
-      </c>
-      <c r="D408" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E408" s="4">
-        <v>2001</v>
-      </c>
-      <c r="F408" t="s">
-        <v>51</v>
-      </c>
-      <c r="G408">
-        <f t="shared" si="16"/>
-        <v>12.327709046357086</v>
-      </c>
-      <c r="H408" t="s">
-        <v>47</v>
-      </c>
-      <c r="J408" t="s">
-        <v>77</v>
-      </c>
-      <c r="K408" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L408" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A409" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B409" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C409" t="s">
-        <v>34</v>
-      </c>
-      <c r="D409" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E409" s="4">
-        <v>2002</v>
-      </c>
-      <c r="F409" t="s">
-        <v>51</v>
-      </c>
-      <c r="G409">
-        <f t="shared" si="16"/>
-        <v>12.239624778211674</v>
-      </c>
-      <c r="H409" t="s">
-        <v>47</v>
-      </c>
-      <c r="J409" t="s">
-        <v>77</v>
-      </c>
-      <c r="K409" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L409" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A410" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B410" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C410" t="s">
-        <v>34</v>
-      </c>
-      <c r="D410" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E410" s="4">
-        <v>2003</v>
-      </c>
-      <c r="F410" t="s">
-        <v>51</v>
-      </c>
-      <c r="G410">
-        <f t="shared" si="16"/>
-        <v>12.163790840106042</v>
-      </c>
-      <c r="H410" t="s">
-        <v>47</v>
-      </c>
-      <c r="J410" t="s">
-        <v>77</v>
-      </c>
-      <c r="K410" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L410" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A411" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B411" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C411" t="s">
-        <v>34</v>
-      </c>
-      <c r="D411" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E411" s="4">
-        <v>2004</v>
-      </c>
-      <c r="F411" t="s">
-        <v>51</v>
-      </c>
-      <c r="G411">
-        <f t="shared" si="16"/>
-        <v>12.118962413188155</v>
-      </c>
-      <c r="H411" t="s">
-        <v>47</v>
-      </c>
-      <c r="J411" t="s">
-        <v>77</v>
-      </c>
-      <c r="K411" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L411" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A412" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B412" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C412" t="s">
-        <v>34</v>
-      </c>
-      <c r="D412" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E412" s="4">
-        <v>2005</v>
-      </c>
-      <c r="F412" t="s">
-        <v>51</v>
-      </c>
-      <c r="G412">
-        <f t="shared" si="16"/>
-        <v>14.267666963331084</v>
-      </c>
-      <c r="H412" t="s">
-        <v>47</v>
-      </c>
-      <c r="J412" t="s">
-        <v>77</v>
-      </c>
-      <c r="K412" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L412" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A413" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B413" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C413" t="s">
-        <v>34</v>
-      </c>
-      <c r="D413" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E413" s="4">
-        <v>2006</v>
-      </c>
-      <c r="F413" t="s">
-        <v>51</v>
-      </c>
-      <c r="G413">
-        <f t="shared" si="16"/>
-        <v>14.442759666413949</v>
-      </c>
-      <c r="H413" t="s">
-        <v>47</v>
-      </c>
-      <c r="J413" t="s">
-        <v>77</v>
-      </c>
-      <c r="K413" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L413" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A414" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B414" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C414" t="s">
-        <v>34</v>
-      </c>
-      <c r="D414" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E414" s="4">
-        <v>2007</v>
-      </c>
-      <c r="F414" t="s">
-        <v>51</v>
-      </c>
-      <c r="G414">
-        <f t="shared" si="16"/>
-        <v>14.756921105546322</v>
-      </c>
-      <c r="H414" t="s">
-        <v>47</v>
-      </c>
-      <c r="J414" t="s">
-        <v>77</v>
-      </c>
-      <c r="K414" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L414" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A415" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B415" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C415" t="s">
-        <v>34</v>
-      </c>
-      <c r="D415" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E415" s="4">
-        <v>2008</v>
-      </c>
-      <c r="F415" t="s">
-        <v>51</v>
-      </c>
-      <c r="G415">
-        <f t="shared" si="16"/>
-        <v>14.030701754385966</v>
-      </c>
-      <c r="H415" t="s">
-        <v>47</v>
-      </c>
-      <c r="J415" t="s">
-        <v>77</v>
-      </c>
-      <c r="K415" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L415" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A416" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B416" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C416" t="s">
-        <v>34</v>
-      </c>
-      <c r="D416" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E416" s="4">
-        <v>2009</v>
-      </c>
-      <c r="F416" t="s">
-        <v>51</v>
-      </c>
-      <c r="G416">
-        <f t="shared" si="16"/>
-        <v>13.86805367683616</v>
-      </c>
-      <c r="H416" t="s">
-        <v>47</v>
-      </c>
-      <c r="J416" t="s">
-        <v>77</v>
-      </c>
-      <c r="K416" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L416" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A417" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B417" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C417" t="s">
-        <v>34</v>
-      </c>
-      <c r="D417" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E417" s="4">
-        <v>2010</v>
-      </c>
-      <c r="F417" t="s">
-        <v>51</v>
-      </c>
-      <c r="G417">
-        <f t="shared" si="16"/>
-        <v>13.778788731604468</v>
-      </c>
-      <c r="H417" t="s">
-        <v>47</v>
-      </c>
-      <c r="J417" t="s">
-        <v>77</v>
-      </c>
-      <c r="K417" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L417" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A418" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B418" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C418" t="s">
-        <v>34</v>
-      </c>
-      <c r="D418" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E418" s="4">
-        <v>2011</v>
-      </c>
-      <c r="F418" t="s">
-        <v>51</v>
-      </c>
-      <c r="G418">
-        <f t="shared" si="16"/>
-        <v>13.660467239831632</v>
-      </c>
-      <c r="H418" t="s">
-        <v>47</v>
-      </c>
-      <c r="J418" t="s">
-        <v>77</v>
-      </c>
-      <c r="K418" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L418" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A419" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B419" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C419" t="s">
-        <v>34</v>
-      </c>
-      <c r="D419" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E419" s="4">
-        <v>2012</v>
-      </c>
-      <c r="F419" t="s">
-        <v>51</v>
-      </c>
-      <c r="G419">
-        <f t="shared" si="16"/>
-        <v>13.747772565737003</v>
-      </c>
-      <c r="H419" t="s">
-        <v>47</v>
-      </c>
-      <c r="J419" t="s">
-        <v>77</v>
-      </c>
-      <c r="K419" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L419" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A420" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B420" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C420" t="s">
-        <v>34</v>
-      </c>
-      <c r="D420" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E420" s="4">
-        <v>2013</v>
-      </c>
-      <c r="F420" t="s">
-        <v>51</v>
-      </c>
-      <c r="G420">
-        <f t="shared" si="16"/>
-        <v>13.586171271694839</v>
-      </c>
-      <c r="H420" t="s">
-        <v>47</v>
-      </c>
-      <c r="J420" t="s">
-        <v>77</v>
-      </c>
-      <c r="K420" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L420" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A421" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B421" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C421" t="s">
-        <v>34</v>
-      </c>
-      <c r="D421" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E421" s="4">
-        <v>2014</v>
-      </c>
-      <c r="F421" t="s">
-        <v>51</v>
-      </c>
-      <c r="G421">
-        <f t="shared" si="16"/>
-        <v>13.631688462365574</v>
-      </c>
-      <c r="H421" t="s">
-        <v>47</v>
-      </c>
-      <c r="J421" t="s">
-        <v>77</v>
-      </c>
-      <c r="K421" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L421" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A422" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B422" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C422" t="s">
-        <v>34</v>
-      </c>
-      <c r="D422" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E422" s="4">
-        <v>2015</v>
-      </c>
-      <c r="F422" t="s">
-        <v>51</v>
-      </c>
-      <c r="G422">
-        <f t="shared" si="16"/>
-        <v>13.617766573905532</v>
-      </c>
-      <c r="H422" t="s">
-        <v>47</v>
-      </c>
-      <c r="J422" t="s">
-        <v>77</v>
-      </c>
-      <c r="K422" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L422" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A423" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B423" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C423" t="s">
-        <v>34</v>
-      </c>
-      <c r="D423" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E423" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F423" t="s">
-        <v>51</v>
-      </c>
-      <c r="G423">
-        <f t="shared" si="16"/>
-        <v>13.535408452010143</v>
-      </c>
-      <c r="H423" t="s">
-        <v>47</v>
-      </c>
-      <c r="J423" t="s">
-        <v>77</v>
-      </c>
-      <c r="K423" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L423" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A424" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B424" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C424" t="s">
-        <v>34</v>
-      </c>
-      <c r="D424" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E424" s="4">
-        <v>2017</v>
-      </c>
-      <c r="F424" t="s">
-        <v>51</v>
-      </c>
-      <c r="G424">
-        <f t="shared" si="16"/>
-        <v>13.549564192564148</v>
-      </c>
-      <c r="H424" t="s">
-        <v>47</v>
-      </c>
-      <c r="J424" t="s">
-        <v>77</v>
-      </c>
-      <c r="K424" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L424" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A425" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B425" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C425" t="s">
-        <v>34</v>
-      </c>
-      <c r="D425" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E425" s="4">
-        <v>2018</v>
-      </c>
-      <c r="F425" t="s">
-        <v>51</v>
-      </c>
-      <c r="G425">
-        <f t="shared" si="16"/>
-        <v>13.315673181578768</v>
-      </c>
-      <c r="H425" t="s">
-        <v>47</v>
-      </c>
-      <c r="J425" t="s">
-        <v>77</v>
-      </c>
-      <c r="K425" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L425" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A426" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B426" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C426" t="s">
-        <v>34</v>
-      </c>
-      <c r="D426" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E426" s="4">
-        <v>2019</v>
-      </c>
-      <c r="F426" t="s">
-        <v>51</v>
-      </c>
-      <c r="G426">
-        <f t="shared" si="16"/>
-        <v>13.588614763325307</v>
-      </c>
-      <c r="H426" t="s">
-        <v>47</v>
-      </c>
-      <c r="J426" t="s">
-        <v>77</v>
-      </c>
-      <c r="K426" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L426" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A427" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B427" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C427" t="s">
-        <v>34</v>
-      </c>
-      <c r="D427" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E427" s="4">
-        <v>2020</v>
-      </c>
-      <c r="F427" t="s">
-        <v>51</v>
-      </c>
-      <c r="G427">
-        <f t="shared" si="16"/>
-        <v>11.768257250215719</v>
-      </c>
-      <c r="H427" t="s">
-        <v>47</v>
-      </c>
-      <c r="J427" t="s">
-        <v>77</v>
-      </c>
-      <c r="K427" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L427" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A428" t="str">
-        <f t="shared" si="14"/>
-        <v>CHE</v>
-      </c>
-      <c r="B428" t="str">
-        <f t="shared" si="15"/>
-        <v>conv_pass_BUSg</v>
-      </c>
-      <c r="C428" t="s">
-        <v>34</v>
-      </c>
-      <c r="D428" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E428" s="4">
-        <v>2021</v>
-      </c>
-      <c r="F428" t="s">
-        <v>51</v>
-      </c>
-      <c r="G428">
-        <f t="shared" si="16"/>
-        <v>11.766576553990241</v>
-      </c>
-      <c r="H428" t="s">
-        <v>47</v>
-      </c>
-      <c r="J428" t="s">
-        <v>77</v>
-      </c>
-      <c r="K428" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L428" t="s">
-        <v>78</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L844" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L810" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A6:L200 A201:G201 I201:L201 A202:L235 A236:G236 I236:L236 A237:L332 A333:F333 A334:L371 A372:G396 I372:L396 A397:L428">
+  <conditionalFormatting sqref="A199:G199 I199:L199 A200:L233 A234:G234 I234:L234 A235:L330 A331:F331 A332:L369 A370:G394 I370:L394 A13:I13 A14:L198 A6:L12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:L13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TODO"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K13" r:id="rId1" xr:uid="{333A7F3E-6247-6241-8C61-62EF5C3CEACF}"/>
-    <hyperlink ref="K195:K201" r:id="rId2" display="https://assets.bbhub.io/professional/sites/24/2018/05/Electric-Buses-in-Cities-Report-BNEF-C40-Citi.pdf" xr:uid="{A38BBF35-CF13-0244-9508-4D926D1A64F1}"/>
+    <hyperlink ref="K12" r:id="rId1" xr:uid="{333A7F3E-6247-6241-8C61-62EF5C3CEACF}"/>
+    <hyperlink ref="K193:K199" r:id="rId2" display="https://assets.bbhub.io/professional/sites/24/2018/05/Electric-Buses-in-Cities-Report-BNEF-C40-Citi.pdf" xr:uid="{A38BBF35-CF13-0244-9508-4D926D1A64F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
